--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/软件开发/输入文档/11.15因卓教育阶段二项目计划.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段二/软件开发/输入文档/11.15因卓教育阶段二项目计划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\因卓教育阶段二\项目计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\因卓教育阶段二\软件开发\输入文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9387,7 +9387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:IW49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:O49"/>
     </sheetView>
   </sheetViews>
@@ -10266,7 +10266,7 @@
   <dimension ref="B1:IX12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" customHeight="1"/>
